--- a/medicine/Sexualité et sexologie/Love_room/Love_room.xlsx
+++ b/medicine/Sexualité et sexologie/Love_room/Love_room.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une Love Room en France, inspirée des love hôtels japonais, est un type d'établissement hôtelier offrant des chambres que l'on peut réserver à l'heure ou pour une nuit. Ces chambres sont spécialement conçues pour offrir intimité et discrétion aux couples. 
 </t>
@@ -511,9 +523,11 @@
           <t>Économie et popularité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis l'ouverture du premier établissement inspiré des love Hotels, le marché des Love Rooms en France a connu une croissance significative[1], avec l'ouverture de plusieurs centaines d'établissements à travers le pays. Ces chambres, qui attirent les couples en quête d'aventure et de détente, proposent des expériences uniques dans des cadres luxueux équipés de commodités haut de gamme telles que des spas privatifs. Les tarifs varient généralement de 150 à 450 euros, reflétant la durée du séjour et le niveau de luxe offert par chaque chambre. L'intérêt pour les Love Rooms est également illustré par la popularité croissante du terme dans les recherches en ligne, passant de 12 000 recherches mensuelles à 40 000 en 2024[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis l'ouverture du premier établissement inspiré des love Hotels, le marché des Love Rooms en France a connu une croissance significative, avec l'ouverture de plusieurs centaines d'établissements à travers le pays. Ces chambres, qui attirent les couples en quête d'aventure et de détente, proposent des expériences uniques dans des cadres luxueux équipés de commodités haut de gamme telles que des spas privatifs. Les tarifs varient généralement de 150 à 450 euros, reflétant la durée du séjour et le niveau de luxe offert par chaque chambre. L'intérêt pour les Love Rooms est également illustré par la popularité croissante du terme dans les recherches en ligne, passant de 12 000 recherches mensuelles à 40 000 en 2024.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le concept de Love Room en France s'inspire des love hôtels japonais, adapté pour répondre aux spécificités culturelles et réglementations françaises. Bien que l'année exacte de l'introduction des Love Rooms en France ne soit pas précisément connue, le concept existait déjà au moins depuis 2011. Au début des années 2020 et 2021, la popularité des Love Rooms a entraîné l'apparition de nombreuses plateformes de réservation en ligne dédiées à ce type d'établissement, reflétant un intérêt grandissant et une acceptation plus large de ce concept. Les entrepreneurs français, inspirés par le succès des love Hotels en Asie, ont su créer une version locale qui respecte les normes d'hôtellerie et offre une discrétion adaptée aux attentes des clients français[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concept de Love Room en France s'inspire des love hôtels japonais, adapté pour répondre aux spécificités culturelles et réglementations françaises. Bien que l'année exacte de l'introduction des Love Rooms en France ne soit pas précisément connue, le concept existait déjà au moins depuis 2011. Au début des années 2020 et 2021, la popularité des Love Rooms a entraîné l'apparition de nombreuses plateformes de réservation en ligne dédiées à ce type d'établissement, reflétant un intérêt grandissant et une acceptation plus large de ce concept. Les entrepreneurs français, inspirés par le succès des love Hotels en Asie, ont su créer une version locale qui respecte les normes d'hôtellerie et offre une discrétion adaptée aux attentes des clients français.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Réception et culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Love Rooms en France jouissent d'une réception très positive, particulièrement appréciées par les couples pour leur capacité à offrir un véritable dépaysement et une évasion du quotidien. Ces espaces permettent non seulement d'explorer des relations intimes dans un cadre privé et luxueux, mais servent également de lieux pour des shootings photo, des événements privés comme des demandes en mariage[3] ou des séances de relaxation en couple.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Love Rooms en France jouissent d'une réception très positive, particulièrement appréciées par les couples pour leur capacité à offrir un véritable dépaysement et une évasion du quotidien. Ces espaces permettent non seulement d'explorer des relations intimes dans un cadre privé et luxueux, mais servent également de lieux pour des shootings photo, des événements privés comme des demandes en mariage ou des séances de relaxation en couple.
 </t>
         </is>
       </c>
